--- a/main/ig/FRAdverseEventLMCDAFHIR.xlsx
+++ b/main/ig/FRAdverseEventLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRAdverseEventLMCDAFHIR.xlsx
+++ b/main/ig/FRAdverseEventLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRAdverseEventLMCDAFHIR.xlsx
+++ b/main/ig/FRAdverseEventLMCDAFHIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -136,10 +136,16 @@
     <t>FRCDAEffetIndesirable.text</t>
   </si>
   <si>
-    <t>FRLMEffetIndesirable.dateDebutFin</t>
-  </si>
-  <si>
-    <t>FRCDAEffetIndesirable.effectiveTime</t>
+    <t>FRLMEffetIndesirable.dateDebut</t>
+  </si>
+  <si>
+    <t>FRCDAEffetIndesirable.effectiveTime.low</t>
+  </si>
+  <si>
+    <t>FRLMEffetIndesirable.dateFin</t>
+  </si>
+  <si>
+    <t>FRCDAEffetIndesirable.effectiveTime.high</t>
   </si>
   <si>
     <t>FRLMEffetIndesirable.valeur</t>
@@ -193,13 +199,7 @@
     <t>FRAdverseEventDocument.category.text</t>
   </si>
   <si>
-    <t>FRCDAEffetIndesirable.effectiveTime.low</t>
-  </si>
-  <si>
     <t>FRAdverseEventDocument.date</t>
-  </si>
-  <si>
-    <t>FRCDAEffetIndesirable.effectiveTime.high</t>
   </si>
   <si>
     <t>FRAdverseEventDocument.detected</t>
@@ -472,7 +472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -654,6 +654,19 @@
         <v>53</v>
       </c>
       <c r="E13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -696,7 +709,7 @@
         <v>29</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>29</v>
@@ -711,7 +724,7 @@
         <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -724,7 +737,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -737,7 +750,7 @@
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -750,26 +763,26 @@
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -782,7 +795,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -795,7 +808,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -808,7 +821,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -821,7 +834,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -834,7 +847,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">

--- a/main/ig/FRAdverseEventLMCDAFHIR.xlsx
+++ b/main/ig/FRAdverseEventLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/FRAdverseEventLMCDAFHIR.xlsx
+++ b/main/ig/FRAdverseEventLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
